--- a/big-data/big-data-capstone/project/data/beer_n_7Bräu Korea Pale Ale.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_7Bräu Korea Pale Ale.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>caribou43(2,669)
+          <t>caribou43(2,673)
 🇨🇭Lausanne, Switzerland
 3.7June 6, 2022
 This bottle is coming from the Asian shop, Mekong, Sallaz, Lausanne. Trying this beverage, at home, Epalinges, relax, on friday, coming from Paris. A copper and clear body,…
@@ -912,7 +912,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GuideDogSaint(3,140)
+          <t>GuideDogSaint(3,141)
 🇨🇳Xiamen, China
 3.2July 3, 2016
 330ml bottle from Ole Supermarket, Shanghai near Hong Qiao Boxing Cat. Pours hazy golden amber with a thin white head. Aroma of sugary malt and toffee. Sweet finish with some…
